--- a/SHIVAM_PROVISION_STORE_purc.xlsx
+++ b/SHIVAM_PROVISION_STORE_purc.xlsx
@@ -46,12 +46,13 @@
     <sheet name="vtc_tradwings_pvt_ltd" r:id="rId40" sheetId="38"/>
     <sheet name="warrior_computer" r:id="rId41" sheetId="39"/>
     <sheet name="yash_agencies" r:id="rId42" sheetId="40"/>
+    <sheet name="Minakshi_Traders" r:id="rId43" sheetId="41"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="10">
   <si>
     <t>S_NO</t>
   </si>
@@ -1698,6 +1699,51 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J1"/>

--- a/SHIVAM_PROVISION_STORE_purc.xlsx
+++ b/SHIVAM_PROVISION_STORE_purc.xlsx
@@ -47,12 +47,13 @@
     <sheet name="warrior_computer" r:id="rId41" sheetId="39"/>
     <sheet name="yash_agencies" r:id="rId42" sheetId="40"/>
     <sheet name="Minakshi_Traders" r:id="rId43" sheetId="41"/>
+    <sheet name="Garg_Global_Spices_PVT_LTD" r:id="rId44" sheetId="42"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="10">
   <si>
     <t>S_NO</t>
   </si>
@@ -1744,6 +1745,51 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J1"/>

--- a/SHIVAM_PROVISION_STORE_purc.xlsx
+++ b/SHIVAM_PROVISION_STORE_purc.xlsx
@@ -48,12 +48,14 @@
     <sheet name="yash_agencies" r:id="rId42" sheetId="40"/>
     <sheet name="Minakshi_Traders" r:id="rId43" sheetId="41"/>
     <sheet name="Garg_Global_Spices_PVT_LTD" r:id="rId44" sheetId="42"/>
+    <sheet name="Saksham_Enterprises" r:id="rId45" sheetId="43"/>
+    <sheet name="Prankur_Enterprises" r:id="rId46" sheetId="44"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="10">
   <si>
     <t>S_NO</t>
   </si>
@@ -1790,6 +1792,96 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:J1"/>
